--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\R\acessos\aplicativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6205A92-D6FC-4CF3-8B03-6BA4E5788F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A08EC6-C4BB-495A-B949-68550A58DD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6754" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="445">
   <si>
     <t>Nome</t>
   </si>
@@ -1440,6 +1440,12 @@
   <si>
     <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/571562/NT42_Cenarios_despesas_auxilio_emergencial.pdf</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/571954/RAF40_MAIO2020.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Mai/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -21570,8 +21576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G102" totalsRowShown="0">
-  <autoFilter ref="A1:G102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G103" totalsRowShown="0">
+  <autoFilter ref="A1:G103" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21863,13 +21869,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24428,6 +24434,31 @@
       </c>
       <c r="G102" s="2">
         <v>43958</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103">
+        <v>40</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E103" t="str">
+        <f>MID($D103,53,6)</f>
+        <v>571954</v>
+      </c>
+      <c r="F103" t="str">
+        <f>MID($D103,60,90)</f>
+        <v>RAF40_MAIO2020.pdf</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43969</v>
       </c>
     </row>
   </sheetData>
@@ -24470,12 +24501,13 @@
     <hyperlink ref="D100" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="D101" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
     <hyperlink ref="D102" r:id="rId35" xr:uid="{A4DAE1DF-40F1-4618-8CDA-9FAEF6F07626}"/>
+    <hyperlink ref="D103" r:id="rId36" xr:uid="{FB0DBC38-8308-4170-919B-827D395E8951}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B1481-6C88-47A9-AACD-FF8DBBF8EE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB147804-C7F4-4FCC-B24A-BB9EB9FA7405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3510" windowWidth="16950" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -110,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6769" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6775" uniqueCount="457">
   <si>
     <t>Nome</t>
   </si>
@@ -1470,6 +1462,18 @@
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Jul/2020</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/575506/RAF43_AGO2020.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Ago/2020</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/575583/CI9_AGO2020_Consideracoes_teto_gastos.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 9 - Considerações sobre o teto de gastos da União</t>
+  </si>
 </sst>
 </file>
 
@@ -21600,8 +21604,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G107" totalsRowShown="0">
-  <autoFilter ref="A1:G107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G109" totalsRowShown="0">
+  <autoFilter ref="A1:G109" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21893,13 +21897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24583,6 +24587,56 @@
       </c>
       <c r="G107" s="2">
         <v>44025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108">
+        <v>43</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="E108" t="str">
+        <f>MID($D108,53,6)</f>
+        <v>575506</v>
+      </c>
+      <c r="F108" t="str">
+        <f>MID($D108,60,90)</f>
+        <v>RAF43_AGO2020.pdf</v>
+      </c>
+      <c r="G108" s="2">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E109" t="str">
+        <f>MID($D109,53,6)</f>
+        <v>575583</v>
+      </c>
+      <c r="F109" t="str">
+        <f>MID($D109,60,90)</f>
+        <v>CI9_AGO2020_Consideracoes_teto_gastos.pdf</v>
+      </c>
+      <c r="G109" s="2">
+        <v>44062</v>
       </c>
     </row>
   </sheetData>
@@ -24630,12 +24684,14 @@
     <hyperlink ref="D105" r:id="rId38" tooltip="https://www2.senado.leg.br/bdsf/bitstream/handle/id/573553/NT43.pdf" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="D106" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="D107" r:id="rId40" xr:uid="{E276D071-26AA-447B-9B9D-3EA123FAD2FB}"/>
+    <hyperlink ref="D108" r:id="rId41" xr:uid="{F384F246-9A43-4866-B821-6B43BD852B61}"/>
+    <hyperlink ref="D109" r:id="rId42" xr:uid="{412315AE-83C7-4720-8614-52E6DA267295}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId41"/>
+  <legacyDrawing r:id="rId43"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12947D2-6F15-4330-BF09-C066B453DB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B02F2-DEDB-475F-9B8E-65F558AC2E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,17 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -102,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6787" uniqueCount="465">
   <si>
     <t>Nome</t>
   </si>
@@ -1492,6 +1503,12 @@
   <si>
     <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/577405/EE13.pdf</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/578343/RAF45_OUT2020.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Out/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -21622,8 +21639,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G112" totalsRowShown="0">
-  <autoFilter ref="A1:G112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G113" totalsRowShown="0">
+  <autoFilter ref="A1:G113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21915,13 +21932,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24730,6 +24747,31 @@
       </c>
       <c r="G112" s="2">
         <v>44099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>464</v>
+      </c>
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s">
+        <v>463</v>
+      </c>
+      <c r="E113" t="str">
+        <f>MID($D113,53,6)</f>
+        <v>578343</v>
+      </c>
+      <c r="F113" t="str">
+        <f>MID($D113,60,90)</f>
+        <v>RAF45_OUT2020.pdf</v>
+      </c>
+      <c r="G113" s="2">
+        <v>44123</v>
       </c>
     </row>
   </sheetData>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2B02F2-DEDB-475F-9B8E-65F558AC2E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2F17C-CFF8-4C8B-BF4D-B42D30882624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +38,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Pedro Henrique Oliveira de Souza:</t>
         </r>
@@ -57,7 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Não há data de publicação</t>
@@ -71,7 +60,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Pedro Henrique Oliveira de Souza:</t>
         </r>
@@ -79,7 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Não há data de publicação</t>
@@ -93,7 +82,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Pedro Henrique Oliveira de Souza:</t>
         </r>
@@ -101,7 +90,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Segoe UI"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Não há data de publicação</t>
@@ -113,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6787" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="469">
   <si>
     <t>Nome</t>
   </si>
@@ -1509,12 +1498,24 @@
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Out/2020</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/579879/RAF46_NOV2020.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Nov/2020</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/580041/EE14.pdf</t>
+  </si>
+  <si>
+    <t>Estudo Especial nº 14 - Análise da situação fiscal dos estados - Nov/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,7 +1528,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1535,19 +1536,27 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1606,7 +1615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1631,6 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -21639,8 +21649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G113" totalsRowShown="0">
-  <autoFilter ref="A1:G113" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G115" totalsRowShown="0">
+  <autoFilter ref="A1:G115" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21932,13 +21942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24772,6 +24782,50 @@
       </c>
       <c r="G113" s="2">
         <v>44123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114">
+        <v>46</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E114" t="str">
+        <f>MID($D114,53,6)</f>
+        <v>579879</v>
+      </c>
+      <c r="F114" t="str">
+        <f>MID($D114,60,90)</f>
+        <v>RAF46_NOV2020.pdf</v>
+      </c>
+      <c r="G114" s="2">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E115" t="str">
+        <f>MID($D115,53,6)</f>
+        <v>580041</v>
+      </c>
+      <c r="F115" t="str">
+        <f>MID($D115,60,90)</f>
+        <v>EE14.pdf</v>
+      </c>
+      <c r="G115" s="2">
+        <v>44154</v>
       </c>
     </row>
   </sheetData>
@@ -24822,12 +24876,14 @@
     <hyperlink ref="D108" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="D109" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="D110" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D114" r:id="rId44" xr:uid="{12E0EA6C-C7DF-4644-B965-8863F370E2DC}"/>
+    <hyperlink ref="D115" r:id="rId45" xr:uid="{8849C38B-C3F9-4A11-BBAD-991CEE163A75}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId44"/>
+  <legacyDrawing r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2F17C-CFF8-4C8B-BF4D-B42D30882624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F559B26-9244-4193-95EC-50E430DF2EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2355" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6792" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="471">
   <si>
     <t>Nome</t>
   </si>
@@ -1510,12 +1510,18 @@
   <si>
     <t>Estudo Especial nº 14 - Análise da situação fiscal dos estados - Nov/2020</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/580954/RAF47_DEZ2020.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Dez/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1562,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1615,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1641,6 +1654,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -21649,8 +21663,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G115" totalsRowShown="0">
-  <autoFilter ref="A1:G115" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G116" totalsRowShown="0">
+  <autoFilter ref="A1:G116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21942,13 +21956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A115" sqref="A115"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -24813,6 +24827,12 @@
       <c r="A115" s="16" t="s">
         <v>468</v>
       </c>
+      <c r="B115" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>14</v>
+      </c>
       <c r="D115" s="15" t="s">
         <v>467</v>
       </c>
@@ -24826,6 +24846,31 @@
       </c>
       <c r="G115" s="2">
         <v>44154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116">
+        <v>47</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="E116" t="str">
+        <f>MID($D116,53,6)</f>
+        <v>580954</v>
+      </c>
+      <c r="F116" t="str">
+        <f>MID($D116,60,90)</f>
+        <v>RAF47_DEZ2020.pdf</v>
+      </c>
+      <c r="G116" s="2">
+        <v>44179</v>
       </c>
     </row>
   </sheetData>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F559B26-9244-4193-95EC-50E430DF2EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85D60F-3FB0-4F0D-9A17-5714807D0D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2355" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6797" uniqueCount="472">
   <si>
     <t>Nome</t>
   </si>
@@ -1516,6 +1516,9 @@
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Dez/2020</t>
   </si>
+  <si>
+    <t>Sigla</t>
+  </si>
 </sst>
 </file>
 
@@ -1660,7 +1663,10 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -20480,7 +20486,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C284" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -21663,9 +21669,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G116" totalsRowShown="0">
-  <autoFilter ref="A1:G116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H116" totalsRowShown="0">
+  <autoFilter ref="A1:H116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Numero"/>
@@ -21676,7 +21682,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21691,8 +21700,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nome"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21956,13 +21965,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21975,7 +21984,7 @@
     <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21997,8 +22006,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -22022,8 +22034,12 @@
       <c r="G2" s="2">
         <v>42795</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -22047,8 +22063,12 @@
       <c r="G3" s="2">
         <v>42826</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -22072,8 +22092,12 @@
       <c r="G4" s="2">
         <v>43009</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -22097,8 +22121,12 @@
       <c r="G5" s="2">
         <v>43101</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -22122,8 +22150,12 @@
       <c r="G6" s="2">
         <v>43195</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -22147,8 +22179,12 @@
       <c r="G7" s="2">
         <v>43340</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -22172,8 +22208,12 @@
       <c r="G8" s="2">
         <v>43377</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -22197,8 +22237,12 @@
       <c r="G9" s="2">
         <v>43445</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -22222,8 +22266,12 @@
       <c r="G10" s="2">
         <v>42888</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -22247,8 +22295,12 @@
       <c r="G11" s="2">
         <v>42908</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -22272,8 +22324,12 @@
       <c r="G12" s="2">
         <v>42913</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -22297,8 +22353,12 @@
       <c r="G13" s="2">
         <v>42933</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -22322,8 +22382,12 @@
       <c r="G14" s="2">
         <v>42949</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -22347,8 +22411,12 @@
       <c r="G15" s="2">
         <v>42964</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -22372,8 +22440,12 @@
       <c r="G16" s="2">
         <v>42992</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -22397,8 +22469,12 @@
       <c r="G17" s="2">
         <v>42996</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -22422,8 +22498,12 @@
       <c r="G18" s="2">
         <v>42997</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -22447,8 +22527,12 @@
       <c r="G19" s="2">
         <v>43031</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -22472,8 +22556,12 @@
       <c r="G20" s="2">
         <v>43063</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -22497,8 +22585,12 @@
       <c r="G21" s="2">
         <v>43068</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -22522,8 +22614,12 @@
       <c r="G22" s="2">
         <v>43088</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -22547,8 +22643,12 @@
       <c r="G23" s="2">
         <v>43091</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -22572,8 +22672,12 @@
       <c r="G24" s="2">
         <v>43122</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -22597,8 +22701,12 @@
       <c r="G25" s="2">
         <v>43154</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -22622,8 +22730,12 @@
       <c r="G26" s="2">
         <v>43259</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -22647,8 +22759,12 @@
       <c r="G27" s="2">
         <v>43304</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -22672,8 +22788,12 @@
       <c r="G28" s="2">
         <v>43321</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -22697,8 +22817,12 @@
       <c r="G29" s="2">
         <v>43336</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -22722,8 +22846,12 @@
       <c r="G30" s="2">
         <v>43343</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -22747,8 +22875,12 @@
       <c r="G31" s="2">
         <v>43364</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -22772,8 +22904,12 @@
       <c r="G32" s="2">
         <v>43378</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -22797,8 +22933,12 @@
       <c r="G33" s="2">
         <v>43405</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -22822,8 +22962,12 @@
       <c r="G34" s="2">
         <v>43446</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -22847,8 +22991,12 @@
       <c r="G35" s="2">
         <v>42768</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -22872,8 +23020,12 @@
       <c r="G36" s="2">
         <v>42800</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -22897,8 +23049,12 @@
       <c r="G37" s="2">
         <v>42832</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -22922,8 +23078,12 @@
       <c r="G38" s="2">
         <v>42864</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -22947,8 +23107,12 @@
       <c r="G39" s="2">
         <v>42898</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -22972,8 +23136,12 @@
       <c r="G40" s="2">
         <v>42926</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -22997,8 +23165,12 @@
       <c r="G41" s="2">
         <v>42957</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -23022,8 +23194,12 @@
       <c r="G42" s="2">
         <v>42990</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -23047,8 +23223,12 @@
       <c r="G43" s="2">
         <v>43017</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -23072,8 +23252,12 @@
       <c r="G44" s="2">
         <v>43052</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -23097,8 +23281,12 @@
       <c r="G45" s="2">
         <v>43080</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -23122,8 +23310,12 @@
       <c r="G46" s="2">
         <v>43115</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -23147,8 +23339,12 @@
       <c r="G47" s="2">
         <v>43140</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -23172,8 +23368,12 @@
       <c r="G48" s="2">
         <v>43171</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -23197,8 +23397,12 @@
       <c r="G49" s="2">
         <v>43199</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -23222,8 +23426,12 @@
       <c r="G50" s="2">
         <v>43227</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -23247,8 +23455,12 @@
       <c r="G51" s="2">
         <v>43262</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -23272,8 +23484,12 @@
       <c r="G52" s="2">
         <v>43290</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -23297,8 +23513,12 @@
       <c r="G53" s="2">
         <v>43325</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -23322,8 +23542,12 @@
       <c r="G54" s="2">
         <v>43354</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -23347,8 +23571,12 @@
       <c r="G55" s="2">
         <v>43381</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -23372,8 +23600,12 @@
       <c r="G56" s="2">
         <v>43416</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -23397,8 +23629,12 @@
       <c r="G57" s="2">
         <v>43444</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -23422,8 +23658,12 @@
       <c r="G58" s="14">
         <v>43115</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -23447,8 +23687,12 @@
       <c r="G59" s="2">
         <v>43507</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -23472,8 +23716,12 @@
       <c r="G60" s="2">
         <v>43507</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -23497,8 +23745,12 @@
       <c r="G61" s="2">
         <v>43521</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -23522,8 +23774,12 @@
       <c r="G62" s="2">
         <v>43524</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -23547,8 +23803,12 @@
       <c r="G63" s="2">
         <v>43525</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -23572,8 +23832,12 @@
       <c r="G64" s="2">
         <v>43535</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -23597,8 +23861,12 @@
       <c r="G65" s="2">
         <v>43550</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -23622,8 +23890,12 @@
       <c r="G66" s="2">
         <v>43552</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -23647,8 +23919,12 @@
       <c r="G67" s="2">
         <v>43570</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -23672,8 +23948,12 @@
       <c r="G68" s="2">
         <v>43600</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -23697,8 +23977,12 @@
       <c r="G69" s="2">
         <v>43619</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -23722,8 +24006,12 @@
       <c r="G70" s="2">
         <v>43626</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -23747,8 +24035,12 @@
       <c r="G71" s="2">
         <v>43627</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -23772,8 +24064,12 @@
       <c r="G72" s="2">
         <v>43644</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -23797,8 +24093,12 @@
       <c r="G73" s="2">
         <v>43644</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -23822,8 +24122,12 @@
       <c r="G74" s="2">
         <v>43647</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -23847,8 +24151,12 @@
       <c r="G75" s="2">
         <v>43656</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -23872,8 +24180,12 @@
       <c r="G76" s="2">
         <v>43656</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -23897,8 +24209,12 @@
       <c r="G77" s="2">
         <v>43661</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -23922,8 +24238,12 @@
       <c r="G78" s="2">
         <v>43662</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -23947,8 +24267,12 @@
       <c r="G79" s="2">
         <v>43689</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -23972,8 +24296,12 @@
       <c r="G80" s="2">
         <v>43692</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -23997,8 +24325,12 @@
       <c r="G81" s="2">
         <v>43717</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -24022,8 +24354,12 @@
       <c r="G82" s="2">
         <v>43752</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -24047,8 +24383,12 @@
       <c r="G83" s="2">
         <v>43749</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>175</v>
       </c>
@@ -24072,8 +24412,12 @@
       <c r="G84" s="2">
         <v>43759</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>177</v>
       </c>
@@ -24097,8 +24441,12 @@
       <c r="G85" s="2">
         <v>43766</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>179</v>
       </c>
@@ -24122,8 +24470,12 @@
       <c r="G86" s="2">
         <v>43762</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -24147,8 +24499,12 @@
       <c r="G87" s="2">
         <v>43777</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -24172,8 +24528,12 @@
       <c r="G88" s="2">
         <v>43787</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -24197,8 +24557,12 @@
       <c r="G89" s="2">
         <v>43808</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -24222,8 +24586,12 @@
       <c r="G90" s="2">
         <v>43809</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -24247,8 +24615,12 @@
       <c r="G91" s="2">
         <v>43822</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -24272,8 +24644,12 @@
       <c r="G92" s="2">
         <v>43845</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -24297,8 +24673,12 @@
       <c r="G93" s="2">
         <v>43878</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>195</v>
       </c>
@@ -24322,8 +24702,12 @@
       <c r="G94" s="2">
         <v>43894</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -24347,8 +24731,12 @@
       <c r="G95" s="2">
         <v>43906</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>199</v>
       </c>
@@ -24372,8 +24760,12 @@
       <c r="G96" s="2">
         <v>43909</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -24397,8 +24789,12 @@
       <c r="G97" s="2">
         <v>43913</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -24422,8 +24818,12 @@
       <c r="G98" s="2">
         <v>43915</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>205</v>
       </c>
@@ -24447,8 +24847,12 @@
       <c r="G99" s="2">
         <v>43915</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -24472,8 +24876,12 @@
       <c r="G100" s="2">
         <v>43935</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -24497,8 +24905,12 @@
       <c r="G101" s="2">
         <v>43945</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -24522,8 +24934,12 @@
       <c r="G102" s="2">
         <v>43958</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>213</v>
       </c>
@@ -24547,8 +24963,12 @@
       <c r="G103" s="2">
         <v>43969</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -24572,8 +24992,12 @@
       <c r="G104" s="2">
         <v>43970</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>217</v>
       </c>
@@ -24597,8 +25021,12 @@
       <c r="G105" s="2">
         <v>44005</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>219</v>
       </c>
@@ -24622,8 +25050,12 @@
       <c r="G106" s="2">
         <v>43988</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>221</v>
       </c>
@@ -24647,8 +25079,12 @@
       <c r="G107" s="2">
         <v>44025</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -24672,8 +25108,12 @@
       <c r="G108" s="2">
         <v>44060</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>225</v>
       </c>
@@ -24697,8 +25137,12 @@
       <c r="G109" s="2">
         <v>44062</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -24722,8 +25166,12 @@
       <c r="G110" s="2">
         <v>44077</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>229</v>
       </c>
@@ -24737,18 +25185,22 @@
         <v>230</v>
       </c>
       <c r="E111" t="str">
-        <f>MID($D111,53,6)</f>
+        <f t="shared" ref="E111:E116" si="9">MID($D111,53,6)</f>
         <v>576808</v>
       </c>
       <c r="F111" t="str">
-        <f>MID($D111,60,90)</f>
+        <f t="shared" ref="F111:F116" si="10">MID($D111,60,90)</f>
         <v>RAF44_SET2020.pdf</v>
       </c>
       <c r="G111" s="2">
         <v>44088</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -24762,18 +25214,22 @@
         <v>462</v>
       </c>
       <c r="E112" t="str">
-        <f>MID($D112,53,6)</f>
+        <f t="shared" si="9"/>
         <v>577405</v>
       </c>
       <c r="F112" t="str">
-        <f>MID($D112,60,90)</f>
+        <f t="shared" si="10"/>
         <v>EE13.pdf</v>
       </c>
       <c r="G112" s="2">
         <v>44099</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>464</v>
       </c>
@@ -24787,18 +25243,22 @@
         <v>463</v>
       </c>
       <c r="E113" t="str">
-        <f>MID($D113,53,6)</f>
+        <f t="shared" si="9"/>
         <v>578343</v>
       </c>
       <c r="F113" t="str">
-        <f>MID($D113,60,90)</f>
+        <f t="shared" si="10"/>
         <v>RAF45_OUT2020.pdf</v>
       </c>
       <c r="G113" s="2">
         <v>44123</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="16" t="s">
         <v>466</v>
       </c>
@@ -24812,18 +25272,22 @@
         <v>465</v>
       </c>
       <c r="E114" t="str">
-        <f>MID($D114,53,6)</f>
+        <f t="shared" si="9"/>
         <v>579879</v>
       </c>
       <c r="F114" t="str">
-        <f>MID($D114,60,90)</f>
+        <f t="shared" si="10"/>
         <v>RAF46_NOV2020.pdf</v>
       </c>
       <c r="G114" s="2">
         <v>44120</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="16" t="s">
         <v>468</v>
       </c>
@@ -24837,18 +25301,22 @@
         <v>467</v>
       </c>
       <c r="E115" t="str">
-        <f>MID($D115,53,6)</f>
+        <f t="shared" si="9"/>
         <v>580041</v>
       </c>
       <c r="F115" t="str">
-        <f>MID($D115,60,90)</f>
+        <f t="shared" si="10"/>
         <v>EE14.pdf</v>
       </c>
       <c r="G115" s="2">
         <v>44154</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="16" t="s">
         <v>470</v>
       </c>
@@ -24862,20 +25330,24 @@
         <v>469</v>
       </c>
       <c r="E116" t="str">
-        <f>MID($D116,53,6)</f>
+        <f t="shared" si="9"/>
         <v>580954</v>
       </c>
       <c r="F116" t="str">
-        <f>MID($D116,60,90)</f>
+        <f t="shared" si="10"/>
         <v>RAF47_DEZ2020.pdf</v>
       </c>
       <c r="G116" s="2">
         <v>44179</v>
       </c>
+      <c r="H116" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85D60F-3FB0-4F0D-9A17-5714807D0D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAF2E48-C775-4843-983B-74F8B15A8C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6797" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6800" uniqueCount="474">
   <si>
     <t>Nome</t>
   </si>
@@ -1519,6 +1519,12 @@
   <si>
     <t>Sigla</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/583296/RAF48_JAN2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Jan/2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1663,9 +1669,16 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1674,7 +1687,20 @@
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -20486,7 +20512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C284" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -21669,8 +21695,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H116" totalsRowShown="0">
-  <autoFilter ref="A1:H116" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H117" totalsRowShown="0">
+  <autoFilter ref="A1:H117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21682,8 +21708,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21965,13 +21991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25345,9 +25371,41 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117">
+        <v>48</v>
+      </c>
+      <c r="D117" t="s">
+        <v>472</v>
+      </c>
+      <c r="E117" t="str">
+        <f>MID($D117,53,6)</f>
+        <v>583296</v>
+      </c>
+      <c r="F117" t="str">
+        <f>MID($D117,60,90)</f>
+        <v>RAF48_JAN2021.pdf</v>
+      </c>
+      <c r="G117" s="2">
+        <v>44548</v>
+      </c>
+      <c r="H117" s="7" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E117">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAF2E48-C775-4843-983B-74F8B15A8C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D3E4F-AADF-45EB-8240-BF6E2FD95AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,14 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -102,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6800" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6803" uniqueCount="476">
   <si>
     <t>Nome</t>
   </si>
@@ -1525,6 +1533,12 @@
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Jan/2021</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/584764/RAF49_FEV2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Fev/2021</t>
+  </si>
 </sst>
 </file>
 
@@ -1681,10 +1695,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1693,14 +1711,10 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -21695,8 +21709,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H117" totalsRowShown="0">
-  <autoFilter ref="A1:H117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H118" totalsRowShown="0">
+  <autoFilter ref="A1:H118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21708,8 +21722,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21726,8 +21740,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nome"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21991,13 +22005,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25393,9 +25407,38 @@
         <v>RAF48_JAN2021.pdf</v>
       </c>
       <c r="G117" s="2">
-        <v>44548</v>
+        <v>44214</v>
       </c>
       <c r="H117" s="7" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118">
+        <v>49</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E118" t="str">
+        <f>MID($D118,53,6)</f>
+        <v>584764</v>
+      </c>
+      <c r="F118" t="str">
+        <f>MID($D118,60,90)</f>
+        <v>RAF49_FEV2021.pdf</v>
+      </c>
+      <c r="G118" s="2">
+        <v>44249</v>
+      </c>
+      <c r="H118" s="7" t="str">
         <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
         <v>RAF</v>
       </c>
@@ -25404,8 +25447,8 @@
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E117">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="E2:E118">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -25453,12 +25496,13 @@
     <hyperlink ref="D110" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="D114" r:id="rId44" xr:uid="{12E0EA6C-C7DF-4644-B965-8863F370E2DC}"/>
     <hyperlink ref="D115" r:id="rId45" xr:uid="{8849C38B-C3F9-4A11-BBAD-991CEE163A75}"/>
+    <hyperlink ref="D118" r:id="rId46" xr:uid="{65BAB5C1-16AB-48A3-AAE8-580D871A039F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D3E4F-AADF-45EB-8240-BF6E2FD95AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C8BBE-786F-4316-8C2F-6829F23A713A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -110,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6803" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6806" uniqueCount="478">
   <si>
     <t>Nome</t>
   </si>
@@ -1539,6 +1531,12 @@
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Fev/2021</t>
   </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/585101/CI10_PEC_emergencial.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 10 - Análise do novo texto da PEC Emergencial</t>
+  </si>
 </sst>
 </file>
 
@@ -1651,7 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1678,6 +1676,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1695,6 +1694,18 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1703,18 +1714,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
     <dxf>
       <font>
@@ -21709,8 +21708,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H118" totalsRowShown="0">
-  <autoFilter ref="A1:H118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H119" totalsRowShown="0">
+  <autoFilter ref="A1:H119" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -21722,8 +21721,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21740,8 +21739,8 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ID"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nome"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Categoria"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Data_Original" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22005,13 +22004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25443,12 +25442,41 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E119" t="str">
+        <f>MID($D119,53,6)</f>
+        <v>585101</v>
+      </c>
+      <c r="F119" t="str">
+        <f>MID($D119,60,90)</f>
+        <v>CI10_PEC_emergencial.pdf</v>
+      </c>
+      <c r="G119" s="2">
+        <v>44253</v>
+      </c>
+      <c r="H119" s="7" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E118">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="E2:E119">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -25497,12 +25525,13 @@
     <hyperlink ref="D114" r:id="rId44" xr:uid="{12E0EA6C-C7DF-4644-B965-8863F370E2DC}"/>
     <hyperlink ref="D115" r:id="rId45" xr:uid="{8849C38B-C3F9-4A11-BBAD-991CEE163A75}"/>
     <hyperlink ref="D118" r:id="rId46" xr:uid="{65BAB5C1-16AB-48A3-AAE8-580D871A039F}"/>
+    <hyperlink ref="D119" r:id="rId47" xr:uid="{6B60DCA6-EE83-43DE-B0A7-58B16DC61F12}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId47"/>
+  <legacyDrawing r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8458B-83DC-467D-98CC-F608FC84733A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF06088-88A1-408B-B23F-0B1A28EDACA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="252">
   <si>
     <t>Nome</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Mar/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/586456/NT46.pdf</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 46 - Projeções finais para o Orçamento Federal de 2021 - Mar/2020</t>
   </si>
 </sst>
 </file>
@@ -962,7 +968,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -978,6 +984,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1003,8 +1019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H120" totalsRowShown="0">
-  <autoFilter ref="A1:H120" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H121" totalsRowShown="0">
+  <autoFilter ref="A1:H121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1283,13 +1299,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
+      <selection pane="bottomRight" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4779,12 +4795,41 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>46</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" t="str">
+        <f>MID($D121,53,6)</f>
+        <v>586456</v>
+      </c>
+      <c r="F121" t="str">
+        <f>MID($D121,60,90)</f>
+        <v>NT46.pdf</v>
+      </c>
+      <c r="G121" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H121" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E120">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="E2:E121">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4835,12 +4880,13 @@
     <hyperlink ref="D118" r:id="rId46" xr:uid="{65BAB5C1-16AB-48A3-AAE8-580D871A039F}"/>
     <hyperlink ref="D119" r:id="rId47" xr:uid="{6B60DCA6-EE83-43DE-B0A7-58B16DC61F12}"/>
     <hyperlink ref="D120" r:id="rId48" xr:uid="{E92798D9-E302-47B6-8705-0D3F4F91112A}"/>
+    <hyperlink ref="D121" r:id="rId49" xr:uid="{79FE548D-E285-41A8-808A-884CEF25BE20}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId49"/>
+  <legacyDrawing r:id="rId50"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId51"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF06088-88A1-408B-B23F-0B1A28EDACA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D421D-629B-4E5A-B525-F19DB8B1F91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="256">
   <si>
     <t>Nome</t>
   </si>
@@ -852,6 +852,18 @@
   </si>
   <si>
     <t>Nota Técnica nº 46 - Projeções finais para o Orçamento Federal de 2021 - Mar/2020</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/587142/EE15.pdf</t>
+  </si>
+  <si>
+    <t>Estudo Especial nº 15 - Impacto de medidas de gestão de pessoas sobre as despesas com pessoal - Abr/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/587890/RAF51_ABR2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Abr/2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +980,17 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1019,8 +1041,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H121" totalsRowShown="0">
-  <autoFilter ref="A1:H121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H123" totalsRowShown="0">
+  <autoFilter ref="A1:H123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1032,8 +1054,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1299,13 +1321,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G121" sqref="G121"/>
+      <selection pane="bottomRight" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4824,12 +4846,70 @@
         <v>NT</v>
       </c>
     </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E122" t="str">
+        <f>MID($D122,53,6)</f>
+        <v>587142</v>
+      </c>
+      <c r="F122" t="str">
+        <f>MID($D122,60,90)</f>
+        <v>EE15.pdf</v>
+      </c>
+      <c r="G122" s="1">
+        <v>44295</v>
+      </c>
+      <c r="H122" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123">
+        <v>51</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" t="str">
+        <f>MID($D123,53,6)</f>
+        <v>587890</v>
+      </c>
+      <c r="F123" t="str">
+        <f>MID($D123,60,90)</f>
+        <v>RAF51_ABR2021.pdf</v>
+      </c>
+      <c r="G123" s="1">
+        <v>44305</v>
+      </c>
+      <c r="H123" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E121">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="E2:E123">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4881,12 +4961,14 @@
     <hyperlink ref="D119" r:id="rId47" xr:uid="{6B60DCA6-EE83-43DE-B0A7-58B16DC61F12}"/>
     <hyperlink ref="D120" r:id="rId48" xr:uid="{E92798D9-E302-47B6-8705-0D3F4F91112A}"/>
     <hyperlink ref="D121" r:id="rId49" xr:uid="{79FE548D-E285-41A8-808A-884CEF25BE20}"/>
+    <hyperlink ref="D122" r:id="rId50" xr:uid="{39E5A19E-6B66-471F-923E-6F013B61CC44}"/>
+    <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId50"/>
+  <legacyDrawing r:id="rId52"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId53"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D421D-629B-4E5A-B525-F19DB8B1F91D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00E565-826D-4DEA-908D-37F0681CCFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
   <si>
     <t>Nome</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Abr/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/588176/NT47_LOA2021.pdf</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 47 - A LOA 2021 e o novo cenário fiscal do governo - Abr/2021</t>
   </si>
 </sst>
 </file>
@@ -980,17 +986,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1041,8 +1037,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H123" totalsRowShown="0">
-  <autoFilter ref="A1:H123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H124" totalsRowShown="0">
+  <autoFilter ref="A1:H124" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1054,8 +1050,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1321,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H123" sqref="H123"/>
+      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4715,11 +4711,11 @@
         <v>242</v>
       </c>
       <c r="E117" t="str">
-        <f>MID($D117,53,6)</f>
+        <f t="shared" ref="E117:E123" si="11">MID($D117,53,6)</f>
         <v>583296</v>
       </c>
       <c r="F117" t="str">
-        <f>MID($D117,60,90)</f>
+        <f t="shared" ref="F117:F123" si="12">MID($D117,60,90)</f>
         <v>RAF48_JAN2021.pdf</v>
       </c>
       <c r="G117" s="1">
@@ -4744,11 +4740,11 @@
         <v>244</v>
       </c>
       <c r="E118" t="str">
-        <f>MID($D118,53,6)</f>
+        <f t="shared" si="11"/>
         <v>584764</v>
       </c>
       <c r="F118" t="str">
-        <f>MID($D118,60,90)</f>
+        <f t="shared" si="12"/>
         <v>RAF49_FEV2021.pdf</v>
       </c>
       <c r="G118" s="1">
@@ -4773,11 +4769,11 @@
         <v>246</v>
       </c>
       <c r="E119" t="str">
-        <f>MID($D119,53,6)</f>
+        <f t="shared" si="11"/>
         <v>585101</v>
       </c>
       <c r="F119" t="str">
-        <f>MID($D119,60,90)</f>
+        <f t="shared" si="12"/>
         <v>CI10_PEC_emergencial.pdf</v>
       </c>
       <c r="G119" s="1">
@@ -4802,11 +4798,11 @@
         <v>248</v>
       </c>
       <c r="E120" t="str">
-        <f>MID($D120,53,6)</f>
+        <f t="shared" si="11"/>
         <v>586156</v>
       </c>
       <c r="F120" t="str">
-        <f>MID($D120,60,90)</f>
+        <f t="shared" si="12"/>
         <v>RAF50_MAR2021.pdf</v>
       </c>
       <c r="G120" s="1">
@@ -4831,11 +4827,11 @@
         <v>250</v>
       </c>
       <c r="E121" t="str">
-        <f>MID($D121,53,6)</f>
+        <f t="shared" si="11"/>
         <v>586456</v>
       </c>
       <c r="F121" t="str">
-        <f>MID($D121,60,90)</f>
+        <f t="shared" si="12"/>
         <v>NT46.pdf</v>
       </c>
       <c r="G121" s="1">
@@ -4860,11 +4856,11 @@
         <v>252</v>
       </c>
       <c r="E122" t="str">
-        <f>MID($D122,53,6)</f>
+        <f t="shared" si="11"/>
         <v>587142</v>
       </c>
       <c r="F122" t="str">
-        <f>MID($D122,60,90)</f>
+        <f t="shared" si="12"/>
         <v>EE15.pdf</v>
       </c>
       <c r="G122" s="1">
@@ -4889,11 +4885,11 @@
         <v>254</v>
       </c>
       <c r="E123" t="str">
-        <f>MID($D123,53,6)</f>
+        <f t="shared" si="11"/>
         <v>587890</v>
       </c>
       <c r="F123" t="str">
-        <f>MID($D123,60,90)</f>
+        <f t="shared" si="12"/>
         <v>RAF51_ABR2021.pdf</v>
       </c>
       <c r="G123" s="1">
@@ -4904,12 +4900,41 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>47</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" t="str">
+        <f>MID($D124,53,6)</f>
+        <v>588176</v>
+      </c>
+      <c r="F124" t="str">
+        <f>MID($D124,60,90)</f>
+        <v>NT47_LOA2021.pdf</v>
+      </c>
+      <c r="G124" s="1">
+        <v>44310</v>
+      </c>
+      <c r="H124" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E123">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="E2:E124">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4963,12 +4988,13 @@
     <hyperlink ref="D121" r:id="rId49" xr:uid="{79FE548D-E285-41A8-808A-884CEF25BE20}"/>
     <hyperlink ref="D122" r:id="rId50" xr:uid="{39E5A19E-6B66-471F-923E-6F013B61CC44}"/>
     <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
+    <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId52"/>
+  <legacyDrawing r:id="rId53"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00E565-826D-4DEA-908D-37F0681CCFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA116BDC-C718-4718-AA5E-E8165986C2AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="260">
   <si>
     <t>Nome</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>Nota Técnica nº 47 - A LOA 2021 e o novo cenário fiscal do governo - Abr/2021</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Mai/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/589004/RAF52_MAI2021.pdf</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1043,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H124" totalsRowShown="0">
-  <autoFilter ref="A1:H124" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H125" totalsRowShown="0">
+  <autoFilter ref="A1:H125" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1317,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F120" sqref="F120"/>
+      <selection pane="bottomRight" activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4929,11 +4935,40 @@
         <v>NT</v>
       </c>
     </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125">
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>259</v>
+      </c>
+      <c r="E125" t="str">
+        <f>MID($D125,53,6)</f>
+        <v>589004</v>
+      </c>
+      <c r="F125" t="str">
+        <f>MID($D125,60,90)</f>
+        <v>RAF52_MAI2021.pdf</v>
+      </c>
+      <c r="G125" s="1">
+        <v>44333</v>
+      </c>
+      <c r="H125" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E124">
+  <conditionalFormatting sqref="E2:E125">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA116BDC-C718-4718-AA5E-E8165986C2AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A5A8B-8967-4AE3-A20C-F382ED9CEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
   <si>
     <t>Nome</t>
   </si>
@@ -876,18 +876,31 @@
   </si>
   <si>
     <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/589004/RAF52_MAI2021.pdf</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 48 - Simulações para a retirada do ICMS da base do PIS e da Cofins - Mai/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/589508/NT48.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,9 +983,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -983,10 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1043,8 +1057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H125" totalsRowShown="0">
-  <autoFilter ref="A1:H125" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H126" totalsRowShown="0">
+  <autoFilter ref="A1:H126" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1323,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G126" sqref="G126"/>
+      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4964,11 +4978,40 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>48</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E126" t="str">
+        <f>MID($D126,53,6)</f>
+        <v>589508</v>
+      </c>
+      <c r="F126" t="str">
+        <f>MID($D126,60,90)</f>
+        <v>NT48.pdf</v>
+      </c>
+      <c r="G126" s="1">
+        <v>44347</v>
+      </c>
+      <c r="H126" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E125">
+  <conditionalFormatting sqref="E2:E126">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5024,12 +5067,13 @@
     <hyperlink ref="D122" r:id="rId50" xr:uid="{39E5A19E-6B66-471F-923E-6F013B61CC44}"/>
     <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
     <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
+    <hyperlink ref="D126" r:id="rId53" xr:uid="{75B0CA8B-F3F1-46AF-996A-E588DE89E2C9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\IFI_statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A5A8B-8967-4AE3-A20C-F382ED9CEA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776E813-3864-4F78-894A-C4839AF953F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,29 +878,22 @@
     <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/589004/RAF52_MAI2021.pdf</t>
   </si>
   <si>
-    <t>Nota Técnica nº 48 - Simulações para a retirada do ICMS da base do PIS e da Cofins - Mai/2021</t>
-  </si>
-  <si>
-    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/589508/NT48.pdf</t>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/590036/RAF53_JUN2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Jun/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,9 +976,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -996,11 +989,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1340,10 +1332,10 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4979,32 +4971,32 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126">
+        <v>53</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126">
-        <v>48</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="E126" t="str">
         <f>MID($D126,53,6)</f>
-        <v>589508</v>
+        <v>590036</v>
       </c>
       <c r="F126" t="str">
         <f>MID($D126,60,90)</f>
-        <v>NT48.pdf</v>
+        <v>RAF53_JUN2021.pdf</v>
       </c>
       <c r="G126" s="1">
-        <v>44347</v>
+        <v>44363</v>
       </c>
       <c r="H126" s="2" t="str">
         <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
-        <v>NT</v>
+        <v>RAF</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5059,7 @@
     <hyperlink ref="D122" r:id="rId50" xr:uid="{39E5A19E-6B66-471F-923E-6F013B61CC44}"/>
     <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
     <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
-    <hyperlink ref="D126" r:id="rId53" xr:uid="{75B0CA8B-F3F1-46AF-996A-E588DE89E2C9}"/>
+    <hyperlink ref="D126" r:id="rId53" xr:uid="{FEB3B098-B748-4AED-85A9-848D328C9541}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776E813-3864-4F78-894A-C4839AF953F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AA62E-E7E3-47A0-8E5F-227A53909265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="3330" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="264">
   <si>
     <t>Nome</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Jun/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/591096/RAF54_JUL2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Jul/2021</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H126" totalsRowShown="0">
-  <autoFilter ref="A1:H126" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H127" totalsRowShown="0">
+  <autoFilter ref="A1:H127" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1329,13 +1335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D126" sqref="D126"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4999,11 +5005,34 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" t="str">
+        <f>MID($D127,53,6)</f>
+        <v>591096</v>
+      </c>
+      <c r="F127" t="str">
+        <f>MID($D127,60,90)</f>
+        <v>RAF54_JUL2021.pdf</v>
+      </c>
+      <c r="G127" s="1">
+        <v>44391</v>
+      </c>
+      <c r="H127" s="2" t="e">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E126">
+  <conditionalFormatting sqref="E2:E127">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5060,12 +5089,13 @@
     <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
     <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
     <hyperlink ref="D126" r:id="rId53" xr:uid="{FEB3B098-B748-4AED-85A9-848D328C9541}"/>
+    <hyperlink ref="D127" r:id="rId54" xr:uid="{B3A81831-3CC6-4CA4-9093-4A69CD90F933}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
   <tableParts count="1">
-    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AA62E-E7E3-47A0-8E5F-227A53909265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D25426-3C66-48A4-BB5D-07553DE75D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="3330" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="266">
   <si>
     <t>Nome</t>
   </si>
@@ -888,6 +888,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Jul/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/591941/CI11.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentários da IFI nº 11 - Teto de gastos e as despesas com sentenças judiciais e precatórios em 2022</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H127" totalsRowShown="0">
-  <autoFilter ref="A1:H127" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H128" totalsRowShown="0">
+  <autoFilter ref="A1:H128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1335,13 +1341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5028,11 +5034,34 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" t="str">
+        <f>MID($D128,53,6)</f>
+        <v>591941</v>
+      </c>
+      <c r="F128" t="str">
+        <f>MID($D128,60,90)</f>
+        <v>CI11.pdf</v>
+      </c>
+      <c r="G128" s="1">
+        <v>44413</v>
+      </c>
+      <c r="H128" s="2" t="e">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E247">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E127">
+  <conditionalFormatting sqref="E2:E128">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5090,12 +5119,13 @@
     <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
     <hyperlink ref="D126" r:id="rId53" xr:uid="{FEB3B098-B748-4AED-85A9-848D328C9541}"/>
     <hyperlink ref="D127" r:id="rId54" xr:uid="{B3A81831-3CC6-4CA4-9093-4A69CD90F933}"/>
+    <hyperlink ref="D128" r:id="rId55" xr:uid="{B413AE73-F111-45BC-9715-3D86219AF536}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId55"/>
+  <legacyDrawing r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D25426-3C66-48A4-BB5D-07553DE75D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73E160-6019-4403-A9F9-9EA8A89EB569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32265" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="266">
   <si>
     <t>Nome</t>
   </si>
@@ -1022,10 +1022,14 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1038,14 +1042,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,8 +1074,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1344,10 +1344,10 @@
   <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A129" sqref="A129"/>
+      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5015,6 +5015,12 @@
       <c r="A127" s="11" t="s">
         <v>263</v>
       </c>
+      <c r="B127" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127">
+        <v>54</v>
+      </c>
       <c r="D127" s="10" t="s">
         <v>262</v>
       </c>
@@ -5029,15 +5035,21 @@
       <c r="G127" s="1">
         <v>44391</v>
       </c>
-      <c r="H127" s="2" t="e">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
-        <v>#N/A</v>
+      <c r="H127" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="11" t="s">
         <v>265</v>
       </c>
+      <c r="B128" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128">
+        <v>10</v>
+      </c>
       <c r="D128" s="10" t="s">
         <v>264</v>
       </c>
@@ -5052,17 +5064,17 @@
       <c r="G128" s="1">
         <v>44413</v>
       </c>
-      <c r="H128" s="2" t="e">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
-        <v>#N/A</v>
+      <c r="H128" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E247">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="E2:E246">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E128">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73E160-6019-4403-A9F9-9EA8A89EB569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB429A2-5F6C-4218-AAB2-C658C9F3C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32265" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="268">
   <si>
     <t>Nome</t>
   </si>
@@ -894,18 +894,31 @@
   </si>
   <si>
     <t>CI - Comentários da IFI nº 11 - Teto de gastos e as despesas com sentenças judiciais e precatórios em 2022</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/592076/CI12.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 12 - Risco fiscal materializa-se com a PEC dos Precatórios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -988,9 +1001,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1001,16 +1014,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1031,22 +1061,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1061,8 +1075,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H128" totalsRowShown="0">
-  <autoFilter ref="A1:H128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H129" totalsRowShown="0">
+  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1074,8 +1088,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1341,13 +1355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5048,7 +5062,7 @@
         <v>167</v>
       </c>
       <c r="C128">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>264</v>
@@ -5069,12 +5083,41 @@
         <v>CI</v>
       </c>
     </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129">
+        <v>12</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" t="str">
+        <f>MID($D129,53,6)</f>
+        <v>592076</v>
+      </c>
+      <c r="F129" t="str">
+        <f>MID($D129,60,90)</f>
+        <v>CI12.pdf</v>
+      </c>
+      <c r="G129" s="1">
+        <v>44418</v>
+      </c>
+      <c r="H129" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E128">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="E2:E129">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5132,12 +5175,13 @@
     <hyperlink ref="D126" r:id="rId53" xr:uid="{FEB3B098-B748-4AED-85A9-848D328C9541}"/>
     <hyperlink ref="D127" r:id="rId54" xr:uid="{B3A81831-3CC6-4CA4-9093-4A69CD90F933}"/>
     <hyperlink ref="D128" r:id="rId55" xr:uid="{B413AE73-F111-45BC-9715-3D86219AF536}"/>
+    <hyperlink ref="D129" r:id="rId56" xr:uid="{2D325905-E1C2-4A45-B37C-DDC6333C653D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId58"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB429A2-5F6C-4218-AAB2-C658C9F3C368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAA116-5C51-4C97-B6F2-183779685188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1024,17 +1024,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1088,8 +1078,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1358,10 +1348,10 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A129" sqref="A129"/>
+      <selection pane="bottomRight" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4952,11 +4942,11 @@
         <v>256</v>
       </c>
       <c r="E124" t="str">
-        <f>MID($D124,53,6)</f>
+        <f t="shared" ref="E124:E129" si="13">MID($D124,53,6)</f>
         <v>588176</v>
       </c>
       <c r="F124" t="str">
-        <f>MID($D124,60,90)</f>
+        <f t="shared" ref="F124:F129" si="14">MID($D124,60,90)</f>
         <v>NT47_LOA2021.pdf</v>
       </c>
       <c r="G124" s="1">
@@ -4981,11 +4971,11 @@
         <v>259</v>
       </c>
       <c r="E125" t="str">
-        <f>MID($D125,53,6)</f>
+        <f t="shared" si="13"/>
         <v>589004</v>
       </c>
       <c r="F125" t="str">
-        <f>MID($D125,60,90)</f>
+        <f t="shared" si="14"/>
         <v>RAF52_MAI2021.pdf</v>
       </c>
       <c r="G125" s="1">
@@ -5010,11 +5000,11 @@
         <v>260</v>
       </c>
       <c r="E126" t="str">
-        <f>MID($D126,53,6)</f>
+        <f t="shared" si="13"/>
         <v>590036</v>
       </c>
       <c r="F126" t="str">
-        <f>MID($D126,60,90)</f>
+        <f t="shared" si="14"/>
         <v>RAF53_JUN2021.pdf</v>
       </c>
       <c r="G126" s="1">
@@ -5039,11 +5029,11 @@
         <v>262</v>
       </c>
       <c r="E127" t="str">
-        <f>MID($D127,53,6)</f>
+        <f t="shared" si="13"/>
         <v>591096</v>
       </c>
       <c r="F127" t="str">
-        <f>MID($D127,60,90)</f>
+        <f t="shared" si="14"/>
         <v>RAF54_JUL2021.pdf</v>
       </c>
       <c r="G127" s="1">
@@ -5062,17 +5052,17 @@
         <v>167</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>264</v>
       </c>
       <c r="E128" t="str">
-        <f>MID($D128,53,6)</f>
+        <f t="shared" si="13"/>
         <v>591941</v>
       </c>
       <c r="F128" t="str">
-        <f>MID($D128,60,90)</f>
+        <f t="shared" si="14"/>
         <v>CI11.pdf</v>
       </c>
       <c r="G128" s="1">
@@ -5097,11 +5087,11 @@
         <v>266</v>
       </c>
       <c r="E129" t="str">
-        <f>MID($D129,53,6)</f>
+        <f t="shared" si="13"/>
         <v>592076</v>
       </c>
       <c r="F129" t="str">
-        <f>MID($D129,60,90)</f>
+        <f t="shared" si="14"/>
         <v>CI12.pdf</v>
       </c>
       <c r="G129" s="1">
@@ -5114,10 +5104,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E129">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAA116-5C51-4C97-B6F2-183779685188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A11DE-5EA0-4B1A-A84F-3F4ECDA9B893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="272">
   <si>
     <t>Nome</t>
   </si>
@@ -900,18 +900,37 @@
   </si>
   <si>
     <t>CI - Comentário da IFI nº 12 - Risco fiscal materializa-se com a PEC dos Precatórios</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/592401/RAF55_AGO2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Ago/2021</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 49 - Impactos fiscais da reforma do Imposto de Renda - Set/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/592976/NT49_Reforma_IR.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,9 +1020,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,17 +1033,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1065,8 +1105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H129" totalsRowShown="0">
-  <autoFilter ref="A1:H129" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H131" totalsRowShown="0">
+  <autoFilter ref="A1:H131" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1078,8 +1118,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1345,13 +1385,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A121"/>
+      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5102,12 +5142,70 @@
         <v>CI</v>
       </c>
     </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130">
+        <v>55</v>
+      </c>
+      <c r="D130" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" t="str">
+        <f>MID($D130,53,6)</f>
+        <v>592401</v>
+      </c>
+      <c r="F130" t="str">
+        <f>MID($D130,60,90)</f>
+        <v>RAF55_AGO2021.pdf</v>
+      </c>
+      <c r="G130" s="1">
+        <v>44426</v>
+      </c>
+      <c r="H130" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>49</v>
+      </c>
+      <c r="D131" t="s">
+        <v>271</v>
+      </c>
+      <c r="E131" t="str">
+        <f>MID($D131,53,6)</f>
+        <v>592976</v>
+      </c>
+      <c r="F131" t="str">
+        <f>MID($D131,60,90)</f>
+        <v>NT49_Reforma_IR.pdf</v>
+      </c>
+      <c r="G131" s="1">
+        <v>44442</v>
+      </c>
+      <c r="H131" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E129">
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
+  <conditionalFormatting sqref="E2:E131">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A11DE-5EA0-4B1A-A84F-3F4ECDA9B893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACBA9B7-E213-49AC-AF36-0EA964788418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="274">
   <si>
     <t>Nome</t>
   </si>
@@ -912,6 +912,12 @@
   </si>
   <si>
     <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/592976/NT49_Reforma_IR.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/593096/RAF56_SET2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Set/2021</t>
   </si>
 </sst>
 </file>
@@ -1044,17 +1050,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1105,8 +1101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H131" totalsRowShown="0">
-  <autoFilter ref="A1:H131" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H132" totalsRowShown="0">
+  <autoFilter ref="A1:H132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1118,8 +1114,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1385,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F131" sqref="F131"/>
+      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5200,12 +5196,41 @@
         <v>NT</v>
       </c>
     </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>272</v>
+      </c>
+      <c r="E132" t="str">
+        <f>MID($D132,53,6)</f>
+        <v>593096</v>
+      </c>
+      <c r="F132" t="str">
+        <f>MID($D132,60,90)</f>
+        <v>RAF56_SET2021.pdf</v>
+      </c>
+      <c r="G132" s="1">
+        <v>44454</v>
+      </c>
+      <c r="H132" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E131">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  <conditionalFormatting sqref="E2:E132">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACBA9B7-E213-49AC-AF36-0EA964788418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F50C39-7F99-4AC8-8C32-99852DEC8EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -96,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="276">
   <si>
     <t>Nome</t>
   </si>
@@ -918,6 +927,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Set/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/593450/CI13.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 13 - Análise do texto substitutivo à PEC nº 23, de 2021</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H132" totalsRowShown="0">
-  <autoFilter ref="A1:H132" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H133" totalsRowShown="0">
+  <autoFilter ref="A1:H133" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1381,13 +1396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B108" sqref="B108"/>
+      <selection pane="bottomRight" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5225,11 +5240,40 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C133">
+        <v>13</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" t="str">
+        <f>MID($D133,53,6)</f>
+        <v>593450</v>
+      </c>
+      <c r="F133" t="str">
+        <f>MID($D133,60,90)</f>
+        <v>CI13.pdf</v>
+      </c>
+      <c r="G133" s="1">
+        <v>44476</v>
+      </c>
+      <c r="H133" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E132">
+  <conditionalFormatting sqref="E2:E133">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5289,12 +5333,13 @@
     <hyperlink ref="D127" r:id="rId54" xr:uid="{B3A81831-3CC6-4CA4-9093-4A69CD90F933}"/>
     <hyperlink ref="D128" r:id="rId55" xr:uid="{B413AE73-F111-45BC-9715-3D86219AF536}"/>
     <hyperlink ref="D129" r:id="rId56" xr:uid="{2D325905-E1C2-4A45-B37C-DDC6333C653D}"/>
+    <hyperlink ref="D133" r:id="rId57" xr:uid="{EBC5ECED-D58C-42A4-AE4C-F81E8A05A31D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId57"/>
+  <legacyDrawing r:id="rId58"/>
   <tableParts count="1">
-    <tablePart r:id="rId58"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F50C39-7F99-4AC8-8C32-99852DEC8EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E3AF2-DC23-47F8-844B-6B7431E7CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
   <si>
     <t>Nome</t>
   </si>
@@ -933,6 +933,12 @@
   </si>
   <si>
     <t>CI - Comentário da IFI nº 13 - Análise do texto substitutivo à PEC nº 23, de 2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/593636/RAF57_OUT2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Out/2021</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H133" totalsRowShown="0">
-  <autoFilter ref="A1:H133" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H134" totalsRowShown="0">
+  <autoFilter ref="A1:H134" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1396,13 +1402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C134" sqref="C134"/>
+      <selection pane="bottomRight" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5269,11 +5275,40 @@
         <v>CI</v>
       </c>
     </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134">
+        <v>57</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" t="str">
+        <f>MID($D134,53,6)</f>
+        <v>593636</v>
+      </c>
+      <c r="F134" t="str">
+        <f>MID($D134,60,90)</f>
+        <v>RAF57_OUT2021.pdf</v>
+      </c>
+      <c r="G134" s="1">
+        <v>44489</v>
+      </c>
+      <c r="H134" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E133">
+  <conditionalFormatting sqref="E2:E134">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5334,12 +5369,13 @@
     <hyperlink ref="D128" r:id="rId55" xr:uid="{B413AE73-F111-45BC-9715-3D86219AF536}"/>
     <hyperlink ref="D129" r:id="rId56" xr:uid="{2D325905-E1C2-4A45-B37C-DDC6333C653D}"/>
     <hyperlink ref="D133" r:id="rId57" xr:uid="{EBC5ECED-D58C-42A4-AE4C-F81E8A05A31D}"/>
+    <hyperlink ref="D134" r:id="rId58" xr:uid="{75BB2299-8B9C-4FF7-8611-E599A5254D24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId58"/>
+  <legacyDrawing r:id="rId59"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83E3AF2-DC23-47F8-844B-6B7431E7CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517A248-EFBC-4335-84A3-21DAD3582D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="280">
   <si>
     <t>Nome</t>
   </si>
@@ -939,6 +939,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Out/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/593776/EE16.pdf</t>
+  </si>
+  <si>
+    <t>Estudo Especial nº 16 - A elasticidade da receita em relação ao PIB - Nov/2021</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1128,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H134" totalsRowShown="0">
-  <autoFilter ref="A1:H134" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H135" totalsRowShown="0">
+  <autoFilter ref="A1:H135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1402,13 +1408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5304,11 +5310,40 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>16</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" t="str">
+        <f>MID($D135,53,6)</f>
+        <v>593776</v>
+      </c>
+      <c r="F135" t="str">
+        <f>MID($D135,60,90)</f>
+        <v>EE16.pdf</v>
+      </c>
+      <c r="G135" s="1">
+        <v>44501</v>
+      </c>
+      <c r="H135" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E134">
+  <conditionalFormatting sqref="E2:E135">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5370,12 +5405,13 @@
     <hyperlink ref="D129" r:id="rId56" xr:uid="{2D325905-E1C2-4A45-B37C-DDC6333C653D}"/>
     <hyperlink ref="D133" r:id="rId57" xr:uid="{EBC5ECED-D58C-42A4-AE4C-F81E8A05A31D}"/>
     <hyperlink ref="D134" r:id="rId58" xr:uid="{75BB2299-8B9C-4FF7-8611-E599A5254D24}"/>
+    <hyperlink ref="D135" r:id="rId59" xr:uid="{CFA830C8-5F52-464A-A30D-9A08C4FAEA96}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId59"/>
+  <legacyDrawing r:id="rId60"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId61"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517A248-EFBC-4335-84A3-21DAD3582D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5165D-AA19-45F8-A8C9-1866282E0FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="286">
   <si>
     <t>Nome</t>
   </si>
@@ -945,6 +945,24 @@
   </si>
   <si>
     <t>Estudo Especial nº 16 - A elasticidade da receita em relação ao PIB - Nov/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/594056/RAF58_NOV2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Nov/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/593836/NT50_BPC.pdf</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 50 - O Benefício de Prestação Continuada (BPC) e a Lei nº 14.176 - Nov/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/594276/CI14.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 14 - As implicações fiscais da PEC dos Precatórios</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1095,27 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1128,8 +1166,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H135" totalsRowShown="0">
-  <autoFilter ref="A1:H135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H138" totalsRowShown="0">
+  <autoFilter ref="A1:H138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1141,8 +1179,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1408,13 +1446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5179,11 +5217,11 @@
         <v>268</v>
       </c>
       <c r="E130" t="str">
-        <f>MID($D130,53,6)</f>
+        <f t="shared" ref="E130:E135" si="15">MID($D130,53,6)</f>
         <v>592401</v>
       </c>
       <c r="F130" t="str">
-        <f>MID($D130,60,90)</f>
+        <f t="shared" ref="F130:F135" si="16">MID($D130,60,90)</f>
         <v>RAF55_AGO2021.pdf</v>
       </c>
       <c r="G130" s="1">
@@ -5208,11 +5246,11 @@
         <v>271</v>
       </c>
       <c r="E131" t="str">
-        <f>MID($D131,53,6)</f>
+        <f t="shared" si="15"/>
         <v>592976</v>
       </c>
       <c r="F131" t="str">
-        <f>MID($D131,60,90)</f>
+        <f t="shared" si="16"/>
         <v>NT49_Reforma_IR.pdf</v>
       </c>
       <c r="G131" s="1">
@@ -5237,11 +5275,11 @@
         <v>272</v>
       </c>
       <c r="E132" t="str">
-        <f>MID($D132,53,6)</f>
+        <f t="shared" si="15"/>
         <v>593096</v>
       </c>
       <c r="F132" t="str">
-        <f>MID($D132,60,90)</f>
+        <f t="shared" si="16"/>
         <v>RAF56_SET2021.pdf</v>
       </c>
       <c r="G132" s="1">
@@ -5266,11 +5304,11 @@
         <v>274</v>
       </c>
       <c r="E133" t="str">
-        <f>MID($D133,53,6)</f>
+        <f t="shared" si="15"/>
         <v>593450</v>
       </c>
       <c r="F133" t="str">
-        <f>MID($D133,60,90)</f>
+        <f t="shared" si="16"/>
         <v>CI13.pdf</v>
       </c>
       <c r="G133" s="1">
@@ -5295,11 +5333,11 @@
         <v>276</v>
       </c>
       <c r="E134" t="str">
-        <f>MID($D134,53,6)</f>
+        <f t="shared" si="15"/>
         <v>593636</v>
       </c>
       <c r="F134" t="str">
-        <f>MID($D134,60,90)</f>
+        <f t="shared" si="16"/>
         <v>RAF57_OUT2021.pdf</v>
       </c>
       <c r="G134" s="1">
@@ -5324,11 +5362,11 @@
         <v>278</v>
       </c>
       <c r="E135" t="str">
-        <f>MID($D135,53,6)</f>
+        <f t="shared" si="15"/>
         <v>593776</v>
       </c>
       <c r="F135" t="str">
-        <f>MID($D135,60,90)</f>
+        <f t="shared" si="16"/>
         <v>EE16.pdf</v>
       </c>
       <c r="G135" s="1">
@@ -5339,12 +5377,99 @@
         <v>EE</v>
       </c>
     </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <v>58</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" t="str">
+        <f>MID($D136,53,6)</f>
+        <v>594056</v>
+      </c>
+      <c r="F136" t="str">
+        <f>MID($D136,60,90)</f>
+        <v>RAF58_NOV2021.pdf</v>
+      </c>
+      <c r="G136" s="1">
+        <v>44517</v>
+      </c>
+      <c r="H136" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>50</v>
+      </c>
+      <c r="D137" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" t="str">
+        <f>MID($D137,53,6)</f>
+        <v>593836</v>
+      </c>
+      <c r="F137" t="str">
+        <f>MID($D137,60,90)</f>
+        <v>NT50_BPC.pdf</v>
+      </c>
+      <c r="G137" s="1">
+        <v>44510</v>
+      </c>
+      <c r="H137" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138">
+        <v>14</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" t="str">
+        <f>MID($D138,53,6)</f>
+        <v>594276</v>
+      </c>
+      <c r="F138" t="str">
+        <f>MID($D138,60,90)</f>
+        <v>CI14.pdf</v>
+      </c>
+      <c r="G138" s="1">
+        <v>44529</v>
+      </c>
+      <c r="H138" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>CI</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E135">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="E2:E138">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5406,12 +5531,14 @@
     <hyperlink ref="D133" r:id="rId57" xr:uid="{EBC5ECED-D58C-42A4-AE4C-F81E8A05A31D}"/>
     <hyperlink ref="D134" r:id="rId58" xr:uid="{75BB2299-8B9C-4FF7-8611-E599A5254D24}"/>
     <hyperlink ref="D135" r:id="rId59" xr:uid="{CFA830C8-5F52-464A-A30D-9A08C4FAEA96}"/>
+    <hyperlink ref="D136" r:id="rId60" xr:uid="{34A42378-63E7-4CA1-BAE9-322F13C3A12C}"/>
+    <hyperlink ref="D138" r:id="rId61" xr:uid="{5AB6E084-C88F-42E2-841C-8B3AEB4C2E3D}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId60"/>
+  <legacyDrawing r:id="rId62"/>
   <tableParts count="1">
-    <tablePart r:id="rId61"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5165D-AA19-45F8-A8C9-1866282E0FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC37E01-71A0-4854-874F-89F0456116FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="288">
   <si>
     <t>Nome</t>
   </si>
@@ -963,6 +963,12 @@
   </si>
   <si>
     <t>CI - Comentário da IFI nº 14 - As implicações fiscais da PEC dos Precatórios</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/594517/RAF59_DEZ2021.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Dez/2021</t>
   </si>
 </sst>
 </file>
@@ -1095,27 +1101,7 @@
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1166,8 +1152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H138" totalsRowShown="0">
-  <autoFilter ref="A1:H138" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H139" totalsRowShown="0">
+  <autoFilter ref="A1:H139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1179,8 +1165,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1446,13 +1432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B138" sqref="B138"/>
+      <selection pane="bottomRight" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5464,12 +5450,41 @@
         <v>CI</v>
       </c>
     </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139">
+        <v>59</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E139" t="str">
+        <f>MID($D139,53,6)</f>
+        <v>594517</v>
+      </c>
+      <c r="F139" t="str">
+        <f>MID($D139,60,90)</f>
+        <v>RAF59_DEZ2021.pdf</v>
+      </c>
+      <c r="G139" s="1">
+        <v>44546</v>
+      </c>
+      <c r="H139" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>RAF</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E138">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  <conditionalFormatting sqref="E2:E139">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5533,12 +5548,13 @@
     <hyperlink ref="D135" r:id="rId59" xr:uid="{CFA830C8-5F52-464A-A30D-9A08C4FAEA96}"/>
     <hyperlink ref="D136" r:id="rId60" xr:uid="{34A42378-63E7-4CA1-BAE9-322F13C3A12C}"/>
     <hyperlink ref="D138" r:id="rId61" xr:uid="{5AB6E084-C88F-42E2-841C-8B3AEB4C2E3D}"/>
+    <hyperlink ref="D139" r:id="rId62" xr:uid="{4E2EB6BE-297B-42A2-BADA-34FB29B5998A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId62"/>
+  <legacyDrawing r:id="rId63"/>
   <tableParts count="1">
-    <tablePart r:id="rId63"/>
+    <tablePart r:id="rId64"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC37E01-71A0-4854-874F-89F0456116FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA6954-0933-4C6F-893C-9C93FD22A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="290">
   <si>
     <t>Nome</t>
   </si>
@@ -969,6 +969,12 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Dez/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/594656/EE17_Resultado_Estrutural.pdf</t>
+  </si>
+  <si>
+    <t>Estudo Especial nº 17 - Simulações para o resultado primário estrutural do governo central - Dez/2021</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H139" totalsRowShown="0">
-  <autoFilter ref="A1:H139" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H140" totalsRowShown="0">
+  <autoFilter ref="A1:H140" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1432,13 +1438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H139" sqref="H139"/>
+      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5479,11 +5485,40 @@
         <v>RAF</v>
       </c>
     </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>288</v>
+      </c>
+      <c r="E140" t="str">
+        <f>MID($D140,53,6)</f>
+        <v>594656</v>
+      </c>
+      <c r="F140" t="str">
+        <f>MID($D140,60,90)</f>
+        <v>EE17_Resultado_Estrutural.pdf</v>
+      </c>
+      <c r="G140" s="1">
+        <v>44552</v>
+      </c>
+      <c r="H140" s="2" t="str">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>EE</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E139">
+  <conditionalFormatting sqref="E2:E140">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA6954-0933-4C6F-893C-9C93FD22A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F950EF-F5D6-4C2B-8917-B872CBE77FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="292">
   <si>
     <t>Nome</t>
   </si>
@@ -975,6 +975,12 @@
   </si>
   <si>
     <t>Estudo Especial nº 17 - Simulações para o resultado primário estrutural do governo central - Dez/2021</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/595062/RAF60_JAN2022.pdf</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Jan/2022</t>
   </si>
 </sst>
 </file>
@@ -1158,8 +1164,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H140" totalsRowShown="0">
-  <autoFilter ref="A1:H140" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H141" totalsRowShown="0">
+  <autoFilter ref="A1:H141" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
@@ -1438,13 +1444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5514,11 +5520,34 @@
         <v>EE</v>
       </c>
     </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E141" t="str">
+        <f>MID($D141,53,6)</f>
+        <v>595062</v>
+      </c>
+      <c r="F141" t="str">
+        <f>MID($D141,60,90)</f>
+        <v>RAF60_JAN2022.pdf</v>
+      </c>
+      <c r="G141" s="1">
+        <v>44215</v>
+      </c>
+      <c r="H141" s="2" t="e">
+        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E246">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E140">
+  <conditionalFormatting sqref="E2:E141">
     <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5584,12 +5613,13 @@
     <hyperlink ref="D136" r:id="rId60" xr:uid="{34A42378-63E7-4CA1-BAE9-322F13C3A12C}"/>
     <hyperlink ref="D138" r:id="rId61" xr:uid="{5AB6E084-C88F-42E2-841C-8B3AEB4C2E3D}"/>
     <hyperlink ref="D139" r:id="rId62" xr:uid="{4E2EB6BE-297B-42A2-BADA-34FB29B5998A}"/>
+    <hyperlink ref="D141" r:id="rId63" xr:uid="{09820BF7-3E53-4915-884D-51388E3AA46A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId63"/>
+  <legacyDrawing r:id="rId64"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId65"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IFI\IFI_statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\06587665110co\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F950EF-F5D6-4C2B-8917-B872CBE77FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pedro Henrique Oliveira de Souza</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="316">
   <si>
     <t>Nome</t>
   </si>
@@ -981,18 +980,97 @@
   </si>
   <si>
     <t>RAF - Relatório de Acompanhamento Fiscal - Jan/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Abr/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Fev/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Mar/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Mai/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Jun/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Ago/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Set/2022</t>
+  </si>
+  <si>
+    <t>RAF - Relatório de Acompanhamento Fiscal - Out/2022</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/595819/RAF61_FEV2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/596473/RAF62_MAR2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/597313/RAF63_ABR2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/597893/RAF64_MAI2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/598353/RAF65_JUN2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/598923/RAF66_JUL2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/599701/RAF67_AGO2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/600153/RAF68_SET2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/601316/RAF69_OUT2022.pdf</t>
+  </si>
+  <si>
+    <t>Nota Técnica nº 51 - Impacto fiscal da redução do IPI - Mar/2022</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/596233/NT51_IPI.pdf</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 15 - Programação orçamentária no Decreto nº 11.086, de 30 de maio de 2022</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 16 - A PEC nº 1/2022 e o aumento do risco fiscal</t>
+  </si>
+  <si>
+    <t>CI - Comentário da IFI nº 17 - Programação orçamentária do Decreto nº 11.216, de 30 de setembro de 2022</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/598193/CI15_JUN2022.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.senado.leg.br/bdsf/bitstream/handle/id/598773/CI16_JUL2022.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1089,9 +1167,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1102,18 +1180,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1125,10 +1205,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1150,6 +1244,62 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1164,22 +1314,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:H141" totalsRowShown="0">
-  <autoFilter ref="A1:H141" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:H154" totalsRowShown="0">
+  <autoFilter ref="A1:H154"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Categoria"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Numero"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Link"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ID">
+    <tableColumn id="1" name="Nome"/>
+    <tableColumn id="2" name="Categoria"/>
+    <tableColumn id="3" name="Numero"/>
+    <tableColumn id="4" name="Link"/>
+    <tableColumn id="5" name="ID">
       <calculatedColumnFormula>MID($D2,53,6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Nome arquivo">
+    <tableColumn id="6" name="Nome arquivo">
       <calculatedColumnFormula>MID($D2,60,90)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Data" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{93A6A3EA-E755-4566-AE16-0196F81178A1}" name="Sigla" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</calculatedColumnFormula>
+    <tableColumn id="7" name="Data" dataDxfId="7"/>
+    <tableColumn id="8" name="Sigla" dataDxfId="5">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1443,14 +1593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomRight" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1514,7 +1664,7 @@
         <v>42795</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1543,7 +1693,7 @@
         <v>42826</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1572,7 +1722,7 @@
         <v>43009</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1601,7 +1751,7 @@
         <v>43101</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1630,7 +1780,7 @@
         <v>43195</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1659,7 +1809,7 @@
         <v>43340</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1688,7 +1838,7 @@
         <v>43377</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1717,7 +1867,7 @@
         <v>43445</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -1746,7 +1896,7 @@
         <v>42888</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1775,7 +1925,7 @@
         <v>42908</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1804,7 +1954,7 @@
         <v>42913</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1833,7 +1983,7 @@
         <v>42933</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1862,7 +2012,7 @@
         <v>42949</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1891,7 +2041,7 @@
         <v>42964</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1920,7 +2070,7 @@
         <v>42992</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1949,7 +2099,7 @@
         <v>42996</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -1978,7 +2128,7 @@
         <v>42997</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2007,7 +2157,7 @@
         <v>43031</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2036,7 +2186,7 @@
         <v>43063</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2065,7 +2215,7 @@
         <v>43068</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2094,7 +2244,7 @@
         <v>43088</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2123,7 +2273,7 @@
         <v>43091</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2152,7 +2302,7 @@
         <v>43122</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2181,7 +2331,7 @@
         <v>43154</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2210,7 +2360,7 @@
         <v>43259</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2239,7 +2389,7 @@
         <v>43304</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2268,7 +2418,7 @@
         <v>43321</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2297,7 +2447,7 @@
         <v>43336</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2326,7 +2476,7 @@
         <v>43343</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2355,7 +2505,7 @@
         <v>43364</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2384,7 +2534,7 @@
         <v>43378</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2413,7 +2563,7 @@
         <v>43405</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2442,7 +2592,7 @@
         <v>43446</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -2471,7 +2621,7 @@
         <v>42768</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2500,7 +2650,7 @@
         <v>42800</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2529,7 +2679,7 @@
         <v>42832</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2558,7 +2708,7 @@
         <v>42864</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2587,7 +2737,7 @@
         <v>42898</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2616,7 +2766,7 @@
         <v>42926</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2645,7 +2795,7 @@
         <v>42957</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2674,7 +2824,7 @@
         <v>42990</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2703,7 +2853,7 @@
         <v>43017</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2732,7 +2882,7 @@
         <v>43052</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2761,7 +2911,7 @@
         <v>43080</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2790,7 +2940,7 @@
         <v>43115</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2819,7 +2969,7 @@
         <v>43140</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2848,7 +2998,7 @@
         <v>43171</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2877,7 +3027,7 @@
         <v>43199</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2906,7 +3056,7 @@
         <v>43227</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2935,7 +3085,7 @@
         <v>43262</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2964,7 +3114,7 @@
         <v>43290</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -2993,7 +3143,7 @@
         <v>43325</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3022,7 +3172,7 @@
         <v>43354</v>
       </c>
       <c r="H54" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3051,7 +3201,7 @@
         <v>43381</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3080,7 +3230,7 @@
         <v>43416</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3109,7 +3259,7 @@
         <v>43444</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3138,7 +3288,7 @@
         <v>43115</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3167,7 +3317,7 @@
         <v>43507</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3196,7 +3346,7 @@
         <v>43507</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3225,7 +3375,7 @@
         <v>43521</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3254,7 +3404,7 @@
         <v>43524</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3283,7 +3433,7 @@
         <v>43525</v>
       </c>
       <c r="H63" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3312,7 +3462,7 @@
         <v>43535</v>
       </c>
       <c r="H64" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3341,7 +3491,7 @@
         <v>43550</v>
       </c>
       <c r="H65" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3370,7 +3520,7 @@
         <v>43552</v>
       </c>
       <c r="H66" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3399,7 +3549,7 @@
         <v>43570</v>
       </c>
       <c r="H67" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3428,7 +3578,7 @@
         <v>43600</v>
       </c>
       <c r="H68" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3457,7 +3607,7 @@
         <v>43619</v>
       </c>
       <c r="H69" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -3486,7 +3636,7 @@
         <v>43626</v>
       </c>
       <c r="H70" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3515,7 +3665,7 @@
         <v>43627</v>
       </c>
       <c r="H71" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3544,7 +3694,7 @@
         <v>43644</v>
       </c>
       <c r="H72" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3573,7 +3723,7 @@
         <v>43644</v>
       </c>
       <c r="H73" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3602,7 +3752,7 @@
         <v>43647</v>
       </c>
       <c r="H74" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3631,7 +3781,7 @@
         <v>43656</v>
       </c>
       <c r="H75" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -3660,7 +3810,7 @@
         <v>43656</v>
       </c>
       <c r="H76" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3689,7 +3839,7 @@
         <v>43661</v>
       </c>
       <c r="H77" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3718,7 +3868,7 @@
         <v>43662</v>
       </c>
       <c r="H78" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3747,7 +3897,7 @@
         <v>43689</v>
       </c>
       <c r="H79" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3776,7 +3926,7 @@
         <v>43692</v>
       </c>
       <c r="H80" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -3805,7 +3955,7 @@
         <v>43717</v>
       </c>
       <c r="H81" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3834,7 +3984,7 @@
         <v>43752</v>
       </c>
       <c r="H82" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -3863,7 +4013,7 @@
         <v>43749</v>
       </c>
       <c r="H83" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3892,7 +4042,7 @@
         <v>43759</v>
       </c>
       <c r="H84" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -3921,7 +4071,7 @@
         <v>43766</v>
       </c>
       <c r="H85" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -3950,7 +4100,7 @@
         <v>43762</v>
       </c>
       <c r="H86" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -3979,7 +4129,7 @@
         <v>43777</v>
       </c>
       <c r="H87" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4008,7 +4158,7 @@
         <v>43787</v>
       </c>
       <c r="H88" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4037,7 +4187,7 @@
         <v>43808</v>
       </c>
       <c r="H89" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4066,7 +4216,7 @@
         <v>43809</v>
       </c>
       <c r="H90" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4095,7 +4245,7 @@
         <v>43822</v>
       </c>
       <c r="H91" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -4124,7 +4274,7 @@
         <v>43845</v>
       </c>
       <c r="H92" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4153,7 +4303,7 @@
         <v>43878</v>
       </c>
       <c r="H93" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4182,7 +4332,7 @@
         <v>43894</v>
       </c>
       <c r="H94" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -4211,7 +4361,7 @@
         <v>43906</v>
       </c>
       <c r="H95" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4240,7 +4390,7 @@
         <v>43909</v>
       </c>
       <c r="H96" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4269,7 +4419,7 @@
         <v>43913</v>
       </c>
       <c r="H97" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4298,7 +4448,7 @@
         <v>43915</v>
       </c>
       <c r="H98" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4327,7 +4477,7 @@
         <v>43915</v>
       </c>
       <c r="H99" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4356,7 +4506,7 @@
         <v>43935</v>
       </c>
       <c r="H100" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4385,7 +4535,7 @@
         <v>43945</v>
       </c>
       <c r="H101" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4414,7 +4564,7 @@
         <v>43958</v>
       </c>
       <c r="H102" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4443,7 +4593,7 @@
         <v>43969</v>
       </c>
       <c r="H103" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4472,7 +4622,7 @@
         <v>43970</v>
       </c>
       <c r="H104" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4501,7 +4651,7 @@
         <v>44005</v>
       </c>
       <c r="H105" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4530,7 +4680,7 @@
         <v>43988</v>
       </c>
       <c r="H106" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4559,7 +4709,7 @@
         <v>44025</v>
       </c>
       <c r="H107" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4588,7 +4738,7 @@
         <v>44060</v>
       </c>
       <c r="H108" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4617,7 +4767,7 @@
         <v>44062</v>
       </c>
       <c r="H109" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4646,7 +4796,7 @@
         <v>44077</v>
       </c>
       <c r="H110" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4675,7 +4825,7 @@
         <v>44088</v>
       </c>
       <c r="H111" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4704,7 +4854,7 @@
         <v>44099</v>
       </c>
       <c r="H112" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -4733,7 +4883,7 @@
         <v>44123</v>
       </c>
       <c r="H113" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4762,7 +4912,7 @@
         <v>44120</v>
       </c>
       <c r="H114" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4791,7 +4941,7 @@
         <v>44154</v>
       </c>
       <c r="H115" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -4820,7 +4970,7 @@
         <v>44179</v>
       </c>
       <c r="H116" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4849,7 +4999,7 @@
         <v>44214</v>
       </c>
       <c r="H117" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4878,7 +5028,7 @@
         <v>44249</v>
       </c>
       <c r="H118" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4907,7 +5057,7 @@
         <v>44253</v>
       </c>
       <c r="H119" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -4936,7 +5086,7 @@
         <v>44277</v>
       </c>
       <c r="H120" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -4965,7 +5115,7 @@
         <v>44284</v>
       </c>
       <c r="H121" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -4994,7 +5144,7 @@
         <v>44295</v>
       </c>
       <c r="H122" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -5023,7 +5173,7 @@
         <v>44305</v>
       </c>
       <c r="H123" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5052,7 +5202,7 @@
         <v>44310</v>
       </c>
       <c r="H124" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -5081,7 +5231,7 @@
         <v>44333</v>
       </c>
       <c r="H125" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5110,7 +5260,7 @@
         <v>44363</v>
       </c>
       <c r="H126" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5139,7 +5289,7 @@
         <v>44391</v>
       </c>
       <c r="H127" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5168,7 +5318,7 @@
         <v>44413</v>
       </c>
       <c r="H128" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -5197,7 +5347,7 @@
         <v>44418</v>
       </c>
       <c r="H129" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -5226,7 +5376,7 @@
         <v>44426</v>
       </c>
       <c r="H130" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5255,7 +5405,7 @@
         <v>44442</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -5284,7 +5434,7 @@
         <v>44454</v>
       </c>
       <c r="H132" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5313,7 +5463,7 @@
         <v>44476</v>
       </c>
       <c r="H133" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -5342,7 +5492,7 @@
         <v>44489</v>
       </c>
       <c r="H134" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5371,7 +5521,7 @@
         <v>44501</v>
       </c>
       <c r="H135" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -5389,18 +5539,18 @@
         <v>280</v>
       </c>
       <c r="E136" t="str">
-        <f>MID($D136,53,6)</f>
+        <f t="shared" ref="E136:E140" si="17">MID($D136,53,6)</f>
         <v>594056</v>
       </c>
       <c r="F136" t="str">
-        <f>MID($D136,60,90)</f>
+        <f t="shared" ref="F136:F140" si="18">MID($D136,60,90)</f>
         <v>RAF58_NOV2021.pdf</v>
       </c>
       <c r="G136" s="1">
         <v>44517</v>
       </c>
       <c r="H136" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5418,18 +5568,18 @@
         <v>282</v>
       </c>
       <c r="E137" t="str">
-        <f>MID($D137,53,6)</f>
+        <f t="shared" si="17"/>
         <v>593836</v>
       </c>
       <c r="F137" t="str">
-        <f>MID($D137,60,90)</f>
+        <f t="shared" si="18"/>
         <v>NT50_BPC.pdf</v>
       </c>
       <c r="G137" s="1">
         <v>44510</v>
       </c>
       <c r="H137" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>NT</v>
       </c>
     </row>
@@ -5447,18 +5597,18 @@
         <v>284</v>
       </c>
       <c r="E138" t="str">
-        <f>MID($D138,53,6)</f>
+        <f t="shared" si="17"/>
         <v>594276</v>
       </c>
       <c r="F138" t="str">
-        <f>MID($D138,60,90)</f>
+        <f t="shared" si="18"/>
         <v>CI14.pdf</v>
       </c>
       <c r="G138" s="1">
         <v>44529</v>
       </c>
       <c r="H138" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>CI</v>
       </c>
     </row>
@@ -5476,18 +5626,18 @@
         <v>286</v>
       </c>
       <c r="E139" t="str">
-        <f>MID($D139,53,6)</f>
+        <f t="shared" si="17"/>
         <v>594517</v>
       </c>
       <c r="F139" t="str">
-        <f>MID($D139,60,90)</f>
+        <f t="shared" si="18"/>
         <v>RAF59_DEZ2021.pdf</v>
       </c>
       <c r="G139" s="1">
         <v>44546</v>
       </c>
       <c r="H139" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>RAF</v>
       </c>
     </row>
@@ -5505,18 +5655,18 @@
         <v>288</v>
       </c>
       <c r="E140" t="str">
-        <f>MID($D140,53,6)</f>
+        <f t="shared" si="17"/>
         <v>594656</v>
       </c>
       <c r="F140" t="str">
-        <f>MID($D140,60,90)</f>
+        <f t="shared" si="18"/>
         <v>EE17_Resultado_Estrutural.pdf</v>
       </c>
       <c r="G140" s="1">
         <v>44552</v>
       </c>
       <c r="H140" s="2" t="str">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
         <v>EE</v>
       </c>
     </row>
@@ -5524,7 +5674,13 @@
       <c r="A141" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="B141" t="s">
+        <v>76</v>
+      </c>
+      <c r="C141">
+        <v>60</v>
+      </c>
+      <c r="D141" t="s">
         <v>290</v>
       </c>
       <c r="E141" t="str">
@@ -5536,87 +5692,463 @@
         <v>RAF60_JAN2022.pdf</v>
       </c>
       <c r="G141" s="1">
-        <v>44215</v>
-      </c>
-      <c r="H141" s="2" t="e">
-        <f>_xlfn.IFS(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",Tabela1[[#This Row],[Categoria]]="RAF","RAF",Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI")</f>
-        <v>#N/A</v>
+        <v>44580</v>
+      </c>
+      <c r="H141" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B142" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>300</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" ref="E142:E143" si="19">MID($D142,53,6)</f>
+        <v>595819</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" ref="F142:F143" si="20">MID($D142,60,90)</f>
+        <v>RAF61_FEV2022.pdf</v>
+      </c>
+      <c r="G142" s="1">
+        <v>44608</v>
+      </c>
+      <c r="H142" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
+        <v>301</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="19"/>
+        <v>596473</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="20"/>
+        <v>RAF62_MAR2022.pdf</v>
+      </c>
+      <c r="G143" s="1">
+        <v>44636</v>
+      </c>
+      <c r="H143" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B144" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>302</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" ref="E144:E147" si="21">MID($D144,53,6)</f>
+        <v>597313</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" ref="F144:F147" si="22">MID($D144,60,90)</f>
+        <v>RAF63_ABR2022.pdf</v>
+      </c>
+      <c r="G144" s="1">
+        <v>44664</v>
+      </c>
+      <c r="H144" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>303</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="21"/>
+        <v>597893</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="22"/>
+        <v>RAF64_MAI2022.pdf</v>
+      </c>
+      <c r="G145" s="1">
+        <v>44699</v>
+      </c>
+      <c r="H145" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146">
+        <v>65</v>
+      </c>
+      <c r="D146" t="s">
+        <v>304</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="21"/>
+        <v>598353</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="22"/>
+        <v>RAF65_JUN2022.pdf</v>
+      </c>
+      <c r="G146" s="1">
+        <v>44727</v>
+      </c>
+      <c r="H146" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147">
+        <v>66</v>
+      </c>
+      <c r="D147" t="s">
+        <v>305</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="21"/>
+        <v>598923</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="22"/>
+        <v>RAF66_JUL2022.pdf</v>
+      </c>
+      <c r="G147" s="1">
+        <v>44755</v>
+      </c>
+      <c r="H147" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148">
+        <v>67</v>
+      </c>
+      <c r="D148" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" ref="E148:E150" si="23">MID($D148,53,6)</f>
+        <v>599701</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" ref="F148:F150" si="24">MID($D148,60,90)</f>
+        <v>RAF67_AGO2022.pdf</v>
+      </c>
+      <c r="G148" s="1">
+        <v>44790</v>
+      </c>
+      <c r="H148" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>307</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="23"/>
+        <v>600153</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="24"/>
+        <v>RAF68_SET2022.pdf</v>
+      </c>
+      <c r="G149" s="1">
+        <v>44818</v>
+      </c>
+      <c r="H149" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150">
+        <v>69</v>
+      </c>
+      <c r="D150" t="s">
+        <v>308</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="23"/>
+        <v>601316</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="24"/>
+        <v>RAF69_OUT2022.pdf</v>
+      </c>
+      <c r="G150" s="1">
+        <v>44853</v>
+      </c>
+      <c r="H150" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>RAF</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>309</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>51</v>
+      </c>
+      <c r="D151" t="s">
+        <v>310</v>
+      </c>
+      <c r="E151" t="str">
+        <f>MID($D151,53,6)</f>
+        <v>596233</v>
+      </c>
+      <c r="F151" t="str">
+        <f>MID($D151,60,90)</f>
+        <v>NT51_IPI.pdf</v>
+      </c>
+      <c r="G151" s="1">
+        <v>44628</v>
+      </c>
+      <c r="H151" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>NT</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>314</v>
+      </c>
+      <c r="E152" t="str">
+        <f>MID($D152,53,6)</f>
+        <v>598193</v>
+      </c>
+      <c r="F152" t="str">
+        <f>MID($D152,60,90)</f>
+        <v>CI15_JUN2022.pdf</v>
+      </c>
+      <c r="G152" s="1">
+        <v>44715</v>
+      </c>
+      <c r="H152" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>315</v>
+      </c>
+      <c r="E153" t="str">
+        <f>MID($D153,53,6)</f>
+        <v>598773</v>
+      </c>
+      <c r="F153" t="str">
+        <f>MID($D153,60,90)</f>
+        <v>CI16_JUL2022.pdf</v>
+      </c>
+      <c r="G153" s="17">
+        <v>44748</v>
+      </c>
+      <c r="H153" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>CI</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>314</v>
+      </c>
+      <c r="E154" t="str">
+        <f>MID($D154,53,6)</f>
+        <v>598193</v>
+      </c>
+      <c r="F154" t="str">
+        <f>MID($D154,60,90)</f>
+        <v>CI15_JUN2022.pdf</v>
+      </c>
+      <c r="G154" s="1">
+        <v>44839</v>
+      </c>
+      <c r="H154" s="2" t="str">
+        <f>IF(Tabela1[[#This Row],[Categoria]]="Estudos Especiais","EE",IF(Tabela1[[#This Row],[Categoria]]="RAF","RAF",IF(Tabela1[[#This Row],[Categoria]]="Nota Técnica","NT",IF(Tabela1[[#This Row],[Categoria]]="Comentários da IFI","CI"))))</f>
+        <v>CI</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E246">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="E2:E244">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E141">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="E2:E154">
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D68" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D69" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D70" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D71" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D72" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D73" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D74" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D75" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D76" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D77" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D78" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D79" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D80" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D81" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D82" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D83" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D84" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D85" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D86" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D87" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D88" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D89" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D90" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D91" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D92" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D93" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D94" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D95" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D96" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D97" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D98" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D99" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D100" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D101" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D102" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D103" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D104" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D105" r:id="rId38" tooltip="https://www2.senado.leg.br/bdsf/bitstream/handle/id/573553/NT43.pdf" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D106" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D107" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D108" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D109" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D110" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D114" r:id="rId44" xr:uid="{12E0EA6C-C7DF-4644-B965-8863F370E2DC}"/>
-    <hyperlink ref="D115" r:id="rId45" xr:uid="{8849C38B-C3F9-4A11-BBAD-991CEE163A75}"/>
-    <hyperlink ref="D118" r:id="rId46" xr:uid="{65BAB5C1-16AB-48A3-AAE8-580D871A039F}"/>
-    <hyperlink ref="D119" r:id="rId47" xr:uid="{6B60DCA6-EE83-43DE-B0A7-58B16DC61F12}"/>
-    <hyperlink ref="D120" r:id="rId48" xr:uid="{E92798D9-E302-47B6-8705-0D3F4F91112A}"/>
-    <hyperlink ref="D121" r:id="rId49" xr:uid="{79FE548D-E285-41A8-808A-884CEF25BE20}"/>
-    <hyperlink ref="D122" r:id="rId50" xr:uid="{39E5A19E-6B66-471F-923E-6F013B61CC44}"/>
-    <hyperlink ref="D123" r:id="rId51" xr:uid="{EF02909E-3413-44D6-B122-89788DEB171B}"/>
-    <hyperlink ref="D124" r:id="rId52" xr:uid="{07EB3F87-8CDD-47C7-B509-BECFBB7ED701}"/>
-    <hyperlink ref="D126" r:id="rId53" xr:uid="{FEB3B098-B748-4AED-85A9-848D328C9541}"/>
-    <hyperlink ref="D127" r:id="rId54" xr:uid="{B3A81831-3CC6-4CA4-9093-4A69CD90F933}"/>
-    <hyperlink ref="D128" r:id="rId55" xr:uid="{B413AE73-F111-45BC-9715-3D86219AF536}"/>
-    <hyperlink ref="D129" r:id="rId56" xr:uid="{2D325905-E1C2-4A45-B37C-DDC6333C653D}"/>
-    <hyperlink ref="D133" r:id="rId57" xr:uid="{EBC5ECED-D58C-42A4-AE4C-F81E8A05A31D}"/>
-    <hyperlink ref="D134" r:id="rId58" xr:uid="{75BB2299-8B9C-4FF7-8611-E599A5254D24}"/>
-    <hyperlink ref="D135" r:id="rId59" xr:uid="{CFA830C8-5F52-464A-A30D-9A08C4FAEA96}"/>
-    <hyperlink ref="D136" r:id="rId60" xr:uid="{34A42378-63E7-4CA1-BAE9-322F13C3A12C}"/>
-    <hyperlink ref="D138" r:id="rId61" xr:uid="{5AB6E084-C88F-42E2-841C-8B3AEB4C2E3D}"/>
-    <hyperlink ref="D139" r:id="rId62" xr:uid="{4E2EB6BE-297B-42A2-BADA-34FB29B5998A}"/>
-    <hyperlink ref="D141" r:id="rId63" xr:uid="{09820BF7-3E53-4915-884D-51388E3AA46A}"/>
+    <hyperlink ref="D68" r:id="rId1"/>
+    <hyperlink ref="D69" r:id="rId2"/>
+    <hyperlink ref="D70" r:id="rId3"/>
+    <hyperlink ref="D71" r:id="rId4"/>
+    <hyperlink ref="D72" r:id="rId5"/>
+    <hyperlink ref="D73" r:id="rId6"/>
+    <hyperlink ref="D74" r:id="rId7"/>
+    <hyperlink ref="D75" r:id="rId8"/>
+    <hyperlink ref="D76" r:id="rId9"/>
+    <hyperlink ref="D77" r:id="rId10"/>
+    <hyperlink ref="D78" r:id="rId11"/>
+    <hyperlink ref="D79" r:id="rId12"/>
+    <hyperlink ref="D80" r:id="rId13"/>
+    <hyperlink ref="D81" r:id="rId14"/>
+    <hyperlink ref="D82" r:id="rId15"/>
+    <hyperlink ref="D83" r:id="rId16"/>
+    <hyperlink ref="D84" r:id="rId17"/>
+    <hyperlink ref="D85" r:id="rId18"/>
+    <hyperlink ref="D86" r:id="rId19"/>
+    <hyperlink ref="D87" r:id="rId20"/>
+    <hyperlink ref="D88" r:id="rId21"/>
+    <hyperlink ref="D89" r:id="rId22"/>
+    <hyperlink ref="D90" r:id="rId23"/>
+    <hyperlink ref="D91" r:id="rId24"/>
+    <hyperlink ref="D92" r:id="rId25"/>
+    <hyperlink ref="D93" r:id="rId26"/>
+    <hyperlink ref="D94" r:id="rId27"/>
+    <hyperlink ref="D95" r:id="rId28"/>
+    <hyperlink ref="D96" r:id="rId29"/>
+    <hyperlink ref="D97" r:id="rId30"/>
+    <hyperlink ref="D98" r:id="rId31"/>
+    <hyperlink ref="D99" r:id="rId32"/>
+    <hyperlink ref="D100" r:id="rId33"/>
+    <hyperlink ref="D101" r:id="rId34"/>
+    <hyperlink ref="D102" r:id="rId35"/>
+    <hyperlink ref="D103" r:id="rId36"/>
+    <hyperlink ref="D104" r:id="rId37"/>
+    <hyperlink ref="D105" r:id="rId38" tooltip="https://www2.senado.leg.br/bdsf/bitstream/handle/id/573553/NT43.pdf"/>
+    <hyperlink ref="D106" r:id="rId39"/>
+    <hyperlink ref="D107" r:id="rId40"/>
+    <hyperlink ref="D108" r:id="rId41"/>
+    <hyperlink ref="D109" r:id="rId42"/>
+    <hyperlink ref="D110" r:id="rId43"/>
+    <hyperlink ref="D114" r:id="rId44"/>
+    <hyperlink ref="D115" r:id="rId45"/>
+    <hyperlink ref="D118" r:id="rId46"/>
+    <hyperlink ref="D119" r:id="rId47"/>
+    <hyperlink ref="D120" r:id="rId48"/>
+    <hyperlink ref="D121" r:id="rId49"/>
+    <hyperlink ref="D122" r:id="rId50"/>
+    <hyperlink ref="D123" r:id="rId51"/>
+    <hyperlink ref="D124" r:id="rId52"/>
+    <hyperlink ref="D126" r:id="rId53"/>
+    <hyperlink ref="D127" r:id="rId54"/>
+    <hyperlink ref="D128" r:id="rId55"/>
+    <hyperlink ref="D129" r:id="rId56"/>
+    <hyperlink ref="D133" r:id="rId57"/>
+    <hyperlink ref="D134" r:id="rId58"/>
+    <hyperlink ref="D135" r:id="rId59"/>
+    <hyperlink ref="D136" r:id="rId60"/>
+    <hyperlink ref="D138" r:id="rId61"/>
+    <hyperlink ref="D139" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
   <legacyDrawing r:id="rId64"/>
   <tableParts count="1">
     <tablePart r:id="rId65"/>
